--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>40,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,21; 48,96</t>
+          <t>31,52; 49,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 38,48</t>
+          <t>36,17; 54,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,1; 36,21</t>
+          <t>12,34; 26,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 19,39</t>
+          <t>10,96; 27,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,63; 40,25</t>
+          <t>23,26; 35,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 25,04</t>
+          <t>25,57; 38,99</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>30,67%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,11; 37,36</t>
+          <t>42,96; 51,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,05; 31,48</t>
+          <t>32,86; 40,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,15</t>
+          <t>21,11; 28,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,0</t>
+          <t>20,45; 27,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 30,91</t>
+          <t>32,97; 38,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,14</t>
+          <t>27,82; 33,32</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>33,96%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,34; 33,03</t>
+          <t>38,77; 45,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,67</t>
+          <t>36,75; 43,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,68</t>
+          <t>21,0; 26,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 18,86</t>
+          <t>25,18; 30,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,06; 28,97</t>
+          <t>30,6; 35,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,98; 20,96</t>
+          <t>31,82; 36,05</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>35,5%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,83; 42,19</t>
+          <t>34,09; 41,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 27,66</t>
+          <t>37,63; 45,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,23; 29,67</t>
+          <t>21,86; 28,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 20,68</t>
+          <t>26,58; 33,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,94; 34,94</t>
+          <t>28,75; 33,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 22,62</t>
+          <t>32,78; 37,89</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>33,0%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,48; 30,45</t>
+          <t>40,06; 46,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,76; 25,6</t>
+          <t>35,61; 41,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,84; 25,15</t>
+          <t>26,76; 32,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,88</t>
+          <t>25,13; 30,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,57; 26,48</t>
+          <t>33,88; 37,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,66; 20,96</t>
+          <t>30,75; 34,96</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,75; 33,81</t>
+          <t>40,34; 43,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 25,15</t>
+          <t>37,73; 41,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,57</t>
+          <t>24,12; 27,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 17,92</t>
+          <t>25,87; 28,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,84; 29,05</t>
+          <t>32,55; 35,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,41; 20,78</t>
+          <t>32,14; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,52; 49,61</t>
+          <t>31,14; 48,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,17; 54,91</t>
+          <t>35,19; 53,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 26,23</t>
+          <t>11,98; 25,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 27,22</t>
+          <t>10,48; 26,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,26; 35,74</t>
+          <t>23,68; 35,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 38,99</t>
+          <t>25,58; 37,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 51,21</t>
+          <t>42,66; 50,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,86; 40,94</t>
+          <t>32,9; 41,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,14</t>
+          <t>21,1; 28,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,81</t>
+          <t>20,71; 27,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 38,83</t>
+          <t>33,07; 38,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,82; 33,32</t>
+          <t>28,02; 33,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,77; 45,76</t>
+          <t>38,8; 45,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,75; 43,08</t>
+          <t>36,88; 43,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 26,31</t>
+          <t>20,83; 26,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,18; 30,92</t>
+          <t>24,99; 31,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,6; 35,0</t>
+          <t>30,83; 35,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,82; 36,05</t>
+          <t>31,81; 36,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 41,53</t>
+          <t>33,5; 41,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,63; 45,48</t>
+          <t>37,33; 45,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,86; 28,55</t>
+          <t>21,77; 28,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,58; 33,4</t>
+          <t>26,13; 32,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 33,57</t>
+          <t>28,75; 33,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,78; 37,89</t>
+          <t>33,14; 38,11</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,06; 46,26</t>
+          <t>40,01; 46,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,61; 41,99</t>
+          <t>35,3; 42,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,76; 32,5</t>
+          <t>26,43; 32,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,13; 30,86</t>
+          <t>25,12; 31,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,88; 37,99</t>
+          <t>33,62; 38,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,75; 34,96</t>
+          <t>30,8; 35,07</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,34; 43,77</t>
+          <t>40,56; 43,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,73; 41,11</t>
+          <t>37,85; 41,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,05</t>
+          <t>24,15; 27,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,87; 28,91</t>
+          <t>25,91; 28,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,55; 35,01</t>
+          <t>32,66; 35,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,14; 34,54</t>
+          <t>32,19; 34,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 48,99</t>
+          <t>31,31; 49,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,19; 53,55</t>
+          <t>35,37; 54,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,98; 25,61</t>
+          <t>12,03; 25,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 26,88</t>
+          <t>11,2; 26,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 35,71</t>
+          <t>23,75; 35,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,58; 37,63</t>
+          <t>25,45; 37,59</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,66; 50,98</t>
+          <t>42,95; 51,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 41,29</t>
+          <t>33,28; 41,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 28,39</t>
+          <t>21,29; 28,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 27,96</t>
+          <t>20,9; 28,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 38,48</t>
+          <t>33,2; 38,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,02; 33,63</t>
+          <t>27,83; 33,62</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,8; 45,51</t>
+          <t>38,71; 45,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,88; 43,51</t>
+          <t>36,8; 43,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,51</t>
+          <t>20,54; 25,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,99; 31,18</t>
+          <t>25,34; 31,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,83; 35,02</t>
+          <t>30,59; 35,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,81; 36,25</t>
+          <t>31,84; 36,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,5; 41,16</t>
+          <t>33,58; 41,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,33; 45,33</t>
+          <t>37,76; 44,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 28,48</t>
+          <t>22,01; 28,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,97</t>
+          <t>26,39; 33,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 33,73</t>
+          <t>28,59; 33,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,14; 38,11</t>
+          <t>33,07; 38,16</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,01; 46,33</t>
+          <t>39,89; 46,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,3; 42,0</t>
+          <t>35,37; 41,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,43; 32,39</t>
+          <t>26,4; 32,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,12; 31,04</t>
+          <t>25,01; 30,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,62; 38,09</t>
+          <t>33,87; 37,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,8; 35,07</t>
+          <t>30,74; 35,02</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,56; 43,96</t>
+          <t>40,64; 44,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,37</t>
+          <t>37,85; 41,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 27,09</t>
+          <t>24,13; 27,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 28,95</t>
+          <t>25,88; 29,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,66; 35,01</t>
+          <t>32,66; 34,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,19; 34,56</t>
+          <t>32,27; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
         </is>
       </c>
     </row>
@@ -639,39 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 49,6</t>
+          <t>42,37; 50,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,37; 54,67</t>
+          <t>34,86; 42,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,03; 25,72</t>
+          <t>33,34; 40,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 26,21</t>
+          <t>20,62; 26,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 35,89</t>
+          <t>19,95; 26,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,45; 37,59</t>
+          <t>21,97; 28,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32,14; 37,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28,13; 33,22</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 33,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
         </is>
       </c>
     </row>
@@ -719,39 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,95; 51,15</t>
+          <t>38,71; 45,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 41,11</t>
+          <t>36,8; 43,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 28,28</t>
+          <t>30,39; 36,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,9; 28,17</t>
+          <t>20,54; 25,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 38,57</t>
+          <t>25,34; 31,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 33,62</t>
+          <t>23,22; 28,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30,59; 35,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31,84; 36,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27,58; 31,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34,96%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,71; 45,36</t>
+          <t>33,58; 41,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,8; 43,38</t>
+          <t>37,76; 44,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 25,9</t>
+          <t>37,58; 45,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,44</t>
+          <t>22,01; 28,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,03</t>
+          <t>26,39; 33,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,84; 36,16</t>
+          <t>25,76; 32,23</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28,59; 33,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 38,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32,58; 37,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -879,39 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 41,35</t>
+          <t>39,89; 46,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,76; 44,97</t>
+          <t>35,37; 41,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,55</t>
+          <t>27,75; 33,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 33,63</t>
+          <t>26,4; 32,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,59; 33,58</t>
+          <t>25,01; 30,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,07; 38,16</t>
+          <t>22,09; 27,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 37,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 35,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25,45; 29,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -959,134 +1125,68 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,89; 46,19</t>
+          <t>40,64; 44,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,37; 41,94</t>
+          <t>37,85; 41,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,21</t>
+          <t>33,65; 36,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,72</t>
+          <t>24,13; 27,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,87; 37,97</t>
+          <t>25,88; 29,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 35,02</t>
+          <t>24,63; 27,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,66; 34,94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32,27; 34,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29,35; 31,64</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>25,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,45%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>33,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>33,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>40,64; 44,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>37,85; 41,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>24,13; 27,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>25,88; 29,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>32,66; 34,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>32,27; 34,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,37; 50,1</t>
+          <t>42,26; 49,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,86; 42,45</t>
+          <t>34,66; 42,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 40,79</t>
+          <t>33,45; 40,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,62; 26,78</t>
+          <t>20,31; 26,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 26,89</t>
+          <t>19,83; 26,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 28,7</t>
+          <t>21,97; 28,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,14; 37,4</t>
+          <t>32,39; 37,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 33,22</t>
+          <t>28,35; 33,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,47; 33,77</t>
+          <t>28,63; 33,98</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,71; 45,36</t>
+          <t>39,08; 45,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 43,38</t>
+          <t>36,6; 43,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,39; 36,24</t>
+          <t>30,47; 36,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,54; 25,9</t>
+          <t>20,53; 26,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,44</t>
+          <t>25,34; 31,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,22; 28,8</t>
+          <t>23,33; 29,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,59; 35,03</t>
+          <t>30,84; 35,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 36,16</t>
+          <t>31,74; 36,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 31,54</t>
+          <t>27,42; 31,61</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 41,35</t>
+          <t>33,93; 41,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,76; 44,97</t>
+          <t>37,71; 45,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,58; 45,0</t>
+          <t>37,62; 45,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,55</t>
+          <t>21,71; 28,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 33,63</t>
+          <t>26,45; 33,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,76; 32,23</t>
+          <t>25,26; 32,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,59; 33,58</t>
+          <t>28,52; 33,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,07; 38,16</t>
+          <t>32,78; 38,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,58; 37,56</t>
+          <t>32,43; 37,36</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,89; 46,19</t>
+          <t>40,17; 46,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 41,94</t>
+          <t>35,37; 41,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 33,76</t>
+          <t>27,54; 33,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,21</t>
+          <t>26,59; 32,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,72</t>
+          <t>25,26; 30,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,09; 27,29</t>
+          <t>22,16; 27,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 37,97</t>
+          <t>33,58; 37,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 35,02</t>
+          <t>30,86; 35,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 29,46</t>
+          <t>25,5; 29,48</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,64; 44,04</t>
+          <t>40,46; 44,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,3</t>
+          <t>37,86; 41,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 36,91</t>
+          <t>33,41; 36,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,13; 27,2</t>
+          <t>24,11; 27,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 29,07</t>
+          <t>25,88; 28,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,63; 27,82</t>
+          <t>24,68; 27,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,66; 34,94</t>
+          <t>32,61; 34,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,27; 34,54</t>
+          <t>32,16; 34,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,35; 31,64</t>
+          <t>29,29; 31,62</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>319281</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>269583</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>250552</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161799</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>161840</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>169362</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>481080</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>431423</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>419914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>293262; 345841</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>243855; 297606</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>225737; 273338</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>139780; 184711</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>138243; 185378</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>147594; 192436</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>447718; 517184</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>397080; 469908</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>385481; 457496</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>406281</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>405498</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>339788</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>227136</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>290347</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270928</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>633416</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>695846</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>610716</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>375494; 437488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>372168; 438059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>311167; 370782</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>198837; 253178</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>261603; 320443</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>243123; 302717</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>594892; 679527</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>650333; 739020</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>565869; 652277</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253975</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>314677</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>312102</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>170001</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>229896</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>226802</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>423976</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>544573</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>538903</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>230192; 280930</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>285721; 344951</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>285451; 342623</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>148437; 192863</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>205264; 260365</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>197755; 252480</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>388591; 459894</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>502775; 584218</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>499962; 575888</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>405745</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>365278</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>287292</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>304394</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>294186</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>257384</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>710139</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>659465</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>544676</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>378493; 438036</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>335214; 397767</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>258200; 317739</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>276166; 333702</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>265440; 324672</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>230990; 288153</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>665141; 752175</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>616867; 703414</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>504909; 583757</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1385281</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1355036</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1189733</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>863330</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>976270</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>924476</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2248611</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2331306</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2114209</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1325414; 1442511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1296941; 1415781</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1133536; 1249039</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>814610; 918767</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>920492; 1029014</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>873361; 978159</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2170312; 2328069</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2245409; 2417827</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2029989; 2191972</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>